--- a/VersionRecords/Version 5.3.8 201704111/配置文件/新增jdbc配置（磐石组）.xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/配置文件/新增jdbc配置（磐石组）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.3.8 201704111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.3.8 201704111\配置文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -535,10 +535,6 @@
     <t>jdbc.properties</t>
   </si>
   <si>
-    <t>修改</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>//生产环境配置值请参考 mogoroom-bs 主写库配置
 jdbc.driverClassName_landlordRepo=
 jdbc.url_landlordRepo=
@@ -556,6 +552,10 @@
   </si>
   <si>
     <t>孙苏文</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -1256,6 +1256,21 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1281,21 +1296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6421,19 +6421,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6471,8 +6471,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6484,8 +6484,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6497,8 +6497,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6510,8 +6510,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6523,8 +6523,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6536,8 +6536,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6549,8 +6549,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6562,8 +6562,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6624,36 +6624,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6938,36 +6938,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7233,7 +7233,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7252,36 +7252,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7325,41 +7325,41 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="107.25" customHeight="1">
-      <c r="A4" s="91">
+      <c r="A4" s="82">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="H4" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="I4" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="J4" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="95" t="s">
+      <c r="K4" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="91"/>
+      <c r="M4" s="82"/>
     </row>
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
@@ -7590,36 +7590,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -8113,5 +8113,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>